--- a/assets/files/CV10.xlsx
+++ b/assets/files/CV10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1998 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>29.64824120603015</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>32.1608040201005</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>7.5376884422110555</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>24.623115577889447</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>6.0301507537688446</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>47.089947089947088</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>15.343915343915343</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0.52910052910052907</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>38.144329896907216</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>23.969072164948454</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>5.6701030927835054</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>28.865979381443299</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>3.3505154639175259</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>29.26829268292683</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>23.577235772357724</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>24.390243902439025</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>21.13821138211382</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.6260162601626016</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>246</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>34.166666666666664</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>9.1666666666666661</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>120</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>27.049180327868854</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>19.398907103825138</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>18.579234972677597</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>26.984126984126984</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>36.734693877551024</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>15.873015873015873</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>17.233560090702948</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>3.1746031746031744</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>441</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>29.957805907172997</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>41.350210970464133</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>7.5949367088607591</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>19.40928270042194</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>1.6877637130801688</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>237</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>28.023598820058996</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>38.34808259587021</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>12.979351032448378</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>17.994100294985252</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>2.6548672566371683</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>46.835443037974684</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>37.974683544303801</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>12.658227848101266</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>35.507246376811594</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>38.043478260869563</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>20.289855072463769</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.36231884057971014</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>276</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>38.028169014084504</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>38.028169014084504</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>18.591549295774648</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>4.788732394366197</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.56338028169014087</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>26.347305389221557</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>43.113772455089823</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>8.9820359281437128</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>15.568862275449101</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>5.9880239520958085</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>167</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>24.509803921568629</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>40.196078431372548</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>15.686274509803921</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>10.784313725490197</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>8.8235294117647065</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>102</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>25.650557620817843</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>42.007434944237922</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>11.524163568773234</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>13.754646840148698</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>7.0631970260223049</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>18.556701030927837</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>34.020618556701031</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>33.505154639175259</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>6.7010309278350517</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>7.2164948453608249</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>194</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>10.7981220657277</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>51.173708920187792</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>25.821596244131456</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>10.7981220657277</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>14.496314496314497</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>42.997542997543</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>29.484029484029485</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>3.9312039312039313</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>53.488372093023258</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>27.522935779816514</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>34.862385321100916</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>11.009174311926605</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>26.605504587155963</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>26.756756756756758</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>33.243243243243242</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>10</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>29.72972972972973</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>0.27027027027027029</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>16.260162601626018</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>23.577235772357724</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>43.902439024390247</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>13.414634146341463</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>2.845528455284553</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>32.374100719424462</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>32.374100719424462</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>20.863309352517987</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>1.4388489208633093</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>22.077922077922079</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>26.753246753246753</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>32.727272727272727</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>16.103896103896105</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>2.3376623376623376</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>9.1954022988505741</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>50.574712643678161</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>32.183908045977013</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>18.861209964412812</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>39.857651245551601</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>32.384341637010678</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>8.5409252669039137</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>0.35587188612099646</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>16.576086956521738</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>42.391304347826086</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>32.336956521739133</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>8.4239130434782616</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>0.27173913043478259</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>2.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>33</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>56</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>8.5</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>17.222222222222221</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>69.444444444444443</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>4.4736842105263159</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>25.526315789473685</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>62.368421052631582</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>7.6315789473684212</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>22.56637168141593</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>3.5398230088495577</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>73.451327433628322</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>44.805194805194802</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>8.4415584415584419</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>46.753246753246756</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>5.5263157894736841</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>62.631578947368418</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>21.100917431192659</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>42.201834862385319</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>15.596330275229358</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>12.844036697247706</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>8.2568807339449535</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>218</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>25</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>36.111111111111114</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>28.703703703703702</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>2.7777777777777777</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>22.392638036809817</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>40.184049079754601</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>19.938650306748468</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>11.042944785276074</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>6.4417177914110431</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>16.393442622950818</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>40.983606557377051</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>27.868852459016395</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>11.475409836065573</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>3.278688524590164</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>46.8</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>22.4</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>18.548387096774192</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>44.892473118279568</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>24.193548387096776</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>9.9462365591397841</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>2.4193548387096775</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>39.583333333333336</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>27.083333333333332</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>31.25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>53.432835820895519</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>11.64179104477612</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>0.59701492537313428</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>33.134328358208954</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>1.1940298507462686</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>51.697127937336816</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>32.898172323759788</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>1.3054830287206267</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>38.926174496644293</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>32.885906040268459</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>9.3959731543624159</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>18.120805369127517</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0.67114093959731547</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>149</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>40.254237288135592</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>37.288135593220339</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>2.1186440677966103</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>20.338983050847457</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>39.740259740259738</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>35.584415584415588</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>4.9350649350649354</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>19.480519480519479</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.25974025974025972</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>28</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>12.266666666666667</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>26.4</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.53333333333333333</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>375</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>28</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>12.266666666666667</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>26.4</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.53333333333333333</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>30.76923076923077</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>41.025641025641029</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>33.431952662721891</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>37.869822485207102</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>17.751479289940828</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>3.2544378698224854</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>338</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>33.156498673740053</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>38.196286472148543</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>7.9575596816976129</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>17.241379310344829</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>32.758620689655174</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>66.091954022988503</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>0.5524861878453039</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>51.933701657458563</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>47.513812154696133</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>181</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>0.84507042253521125</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>42.535211267605632</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>56.619718309859152</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>46.467391304347828</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>30.163043478260871</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>4.8913043478260869</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>15.760869565217391</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>2.7173913043478262</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>368</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>44.887780548628427</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>30.423940149625935</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>4.9875311720698257</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>17.206982543640898</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.4937655860349128</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>29.064039408866996</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>34.482758620689658</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>15.270935960591133</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>19.211822660098523</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>1.9704433497536946</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>30.555555555555557</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>35.555555555555557</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>12.222222222222221</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>20</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>29.765013054830288</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>34.986945169712797</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>13.838120104438643</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>19.582245430809401</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>28.323699421965319</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>38.150289017341038</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>12.138728323699421</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>18.497109826589597</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>2.8901734104046244</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>30.882352941176471</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>32.843137254901961</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>11.764705882352942</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>21.568627450980394</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>204</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>29.708222811671089</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>35.278514588859416</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>11.936339522546419</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>20.159151193633953</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>2.9177718832891246</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>31.382978723404257</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>35.638297872340424</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>15.957446808510639</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>15.425531914893616</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>1.5957446808510638</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>34.375</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>11.979166666666666</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>18.75</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.5625</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>192</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>32.368421052631582</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>35</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>13.947368421052632</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>17.105263157894736</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>1.5789473684210527</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>2.8481012658227849</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>16.139240506329113</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>64.556962025316452</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>15.189873417721518</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>316</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>26.229508196721312</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>65.573770491803273</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>17.77188328912467</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>64.721485411140577</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>1.0610079575596818</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>12.9973474801061</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>28.723404255319149</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>35.106382978723403</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>21.276595744680851</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>12.23404255319149</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>22.916666666666668</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>29.6875</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>23.4375</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>20.833333333333332</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>3.125</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>25.789473684210527</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>32.368421052631582</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>22.368421052631579</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>16.578947368421051</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>2.8947368421052633</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>21.490467937608319</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>54.766031195840554</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>19.237435008665511</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.119584055459272</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.3864818024263432</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>577</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>38.193930421909698</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>19.17098445595855</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>9.8445595854922274</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>27.60917838638046</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>5.1813471502590671</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1351</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>33.19502074688797</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>29.823651452282157</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>12.655601659751037</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>20.280082987551868</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>4.0456431535269708</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>1928</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>37.681159420289852</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>52.173913043478258</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>4.3478260869565215</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>21.886792452830189</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>59.245283018867923</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>7.9245283018867925</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>10.188679245283019</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.75471698113207553</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>25.149700598802394</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>57.784431137724553</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>7.4850299401197606</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>8.9820359281437128</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.59880239520958078</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>31.818181818181817</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>43.939393939393938</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>11.363636363636363</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>132</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>21.164021164021165</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>39.153439153439152</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>17.989417989417991</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>16.93121693121693</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>25.545171339563861</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>41.121495327102807</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>15.264797507788161</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>13.395638629283489</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>4.6728971962616823</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>37.885462555066077</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>34.36123348017621</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>13.215859030837004</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>12.334801762114537</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>2.2026431718061672</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>227</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>25.409836065573771</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>43.442622950819676</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>22.131147540983605</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>33.524355300859597</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>37.535816618911177</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>16.332378223495702</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>10.888252148997134</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>1.7191977077363896</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>18.06451612903226</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>43.87096774193548</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>34.193548387096776</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>0.64516129032258063</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>45.454545454545453</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>14.718614718614718</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>6.9264069264069263</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>2.5974025974025974</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>231</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>25.388601036269431</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>44.818652849740936</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>22.538860103626941</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>5.4404145077720205</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.8134715025906736</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>11.711711711711711</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>21.621621621621621</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>56.756756756756758</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>9.9099099099099099</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>34.191176470588232</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>36.397058823529413</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>9.5588235294117645</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>19.117647058823529</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>27.676240208877285</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>32.114882506527415</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>23.237597911227155</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>16.449086161879894</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>42.857142857142854</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>35.714285714285715</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>7.1428571428571432</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>14</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>24.157303370786519</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>42.415730337078649</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>20.786516853932586</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>12.078651685393259</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.5617977528089888</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>356</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>23.243243243243242</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>42.432432432432435</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>21.351351351351351</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>11.891891891891891</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.0810810810810811</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="3">
         <v>370</v>
       </c>
     </row>
